--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00003256\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04354082-B13F-4A6F-9785-9F99ECD489BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0CE7E-6BAA-4AF7-93D3-3F7D58D83C12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41272E1B-3DA3-4284-B08E-449605091C72}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>my excel sheet</t>
+  </si>
+  <si>
+    <t>in my branch</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D3C816-F7FF-4E0F-962E-67A259F4B194}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +401,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00003256\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0CE7E-6BAA-4AF7-93D3-3F7D58D83C12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70CE26-5157-47AB-BF26-C9D7C8CFA661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41272E1B-3DA3-4284-B08E-449605091C72}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>my excel sheet</t>
   </si>
   <si>
     <t>in my branch</t>
+  </si>
+  <si>
+    <t>from manju branch</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D3C816-F7FF-4E0F-962E-67A259F4B194}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +409,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00003256\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70CE26-5157-47AB-BF26-C9D7C8CFA661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED5B64-1BD4-4CA4-A43B-DED38F833936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41272E1B-3DA3-4284-B08E-449605091C72}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>in my branch</t>
   </si>
   <si>
-    <t>from manju branch</t>
+    <t>from manju repository</t>
   </si>
 </sst>
 </file>
@@ -398,6 +398,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
